--- a/documents/TestCaseDocument_379.xlsx
+++ b/documents/TestCaseDocument_379.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naveen S\Documents\ManualTesting\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F3C750-BC0D-444E-B72B-E47F06989A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883E54A5-1AB8-4EC4-A596-DFA5A744C447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Details" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
   <si>
     <t>Test Steps</t>
   </si>
@@ -223,6 +223,22 @@
 Loan Tenure Slider (Minimum 1 Year - Maximum 7 Years)
 Processing Fee Text Field
 Calculate Button</t>
+  </si>
+  <si>
+    <t>As Expected</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>All fields are fine. But,
+Interest Rate Silder's Minimum values is wrong i.e. in UI shows minimum value is 8%</t>
+  </si>
+  <si>
+    <t>Interest Rate Silder's Minimum values is wrong</t>
   </si>
 </sst>
 </file>
@@ -435,14 +451,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -793,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -933,10 +949,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T655"/>
   <sheetViews>
-    <sheetView zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D42" sqref="D42"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1007,7 +1023,12 @@
       <c r="E2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G2"/>
+      <c r="F2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="H2"/>
       <c r="I2"/>
     </row>
@@ -1020,7 +1041,12 @@
       <c r="E3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G3"/>
+      <c r="F3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="H3"/>
       <c r="I3"/>
     </row>
@@ -1036,7 +1062,12 @@
       <c r="E4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G4"/>
+      <c r="F4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="H4"/>
       <c r="I4"/>
     </row>
@@ -1052,7 +1083,12 @@
       <c r="E5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G5"/>
+      <c r="F5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="H5"/>
       <c r="I5"/>
     </row>
@@ -1065,7 +1101,12 @@
       <c r="E6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G6"/>
+      <c r="F6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="H6"/>
       <c r="I6"/>
     </row>
@@ -1078,7 +1119,12 @@
       <c r="E7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G7"/>
+      <c r="F7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="H7"/>
       <c r="I7"/>
     </row>
@@ -1091,7 +1137,12 @@
       <c r="E8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G8"/>
+      <c r="F8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="H8"/>
       <c r="I8"/>
     </row>
@@ -1101,13 +1152,18 @@
       <c r="C9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <v>200000</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G9"/>
+      <c r="F9" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="H9"/>
       <c r="I9"/>
     </row>
@@ -1115,14 +1171,18 @@
       <c r="C10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="23">
         <v>0.105</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F10"/>
-      <c r="G10"/>
+      <c r="F10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
@@ -1134,8 +1194,12 @@
       <c r="E11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F11"/>
-      <c r="G11"/>
+      <c r="F11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="17"/>
@@ -1149,7 +1213,12 @@
       <c r="E12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="G12"/>
+      <c r="F12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="H12"/>
       <c r="I12"/>
     </row>
@@ -1162,7 +1231,12 @@
       <c r="E13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G13"/>
+      <c r="F13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="H13"/>
       <c r="I13"/>
     </row>
@@ -1189,7 +1263,12 @@
       <c r="E15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G15"/>
+      <c r="F15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="H15"/>
       <c r="I15"/>
     </row>
@@ -1202,7 +1281,12 @@
       <c r="E16" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G16"/>
+      <c r="F16" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="H16"/>
       <c r="I16"/>
     </row>
@@ -1218,7 +1302,12 @@
       <c r="E17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G17"/>
+      <c r="F17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="H17"/>
       <c r="I17"/>
     </row>
@@ -1234,7 +1323,12 @@
       <c r="E18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="G18"/>
+      <c r="F18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="H18"/>
       <c r="I18"/>
     </row>
@@ -1247,7 +1341,12 @@
       <c r="E19" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="G19"/>
+      <c r="F19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="H19"/>
       <c r="I19"/>
     </row>
@@ -1260,7 +1359,12 @@
       <c r="E20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G20"/>
+      <c r="F20" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="H20"/>
       <c r="I20"/>
     </row>
@@ -1273,7 +1377,12 @@
       <c r="E21" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G21"/>
+      <c r="F21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="H21"/>
       <c r="I21"/>
     </row>
@@ -1286,8 +1395,15 @@
       <c r="E22" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G22"/>
-      <c r="H22"/>
+      <c r="F22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="I22"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -3519,10 +3635,10 @@
       <c r="A7" s="17"/>
       <c r="C7" s="17"/>
       <c r="D7" s="2"/>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="22"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="17"/>
